--- a/統計管制與最佳化方法概論/homework/my_homework/HW11/hw_11.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW11/hw_11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24784B89-C10B-44DB-90DF-2F95D548F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E575DFB-27E2-4CC1-BF0C-0E3C9D5CB967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="-200" windowWidth="19200" windowHeight="11460" activeTab="4" xr2:uid="{259EBF96-642D-468E-9293-367CF614B782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{259EBF96-642D-468E-9293-367CF614B782}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -936,12 +936,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -986,7 +986,7 @@
         <v>21.602468994692867</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -999,7 +999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1121,15 +1121,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87F834-1D9E-47AC-85F3-4D5751A274E5}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:Q2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>-35.425189811041925</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>-37.652599370610716</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>-29.282841743689655</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>-34.230411828694642</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>-26.30286884424628</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>-32.414512275122156</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>-33.695464016748559</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>-37.276703469218134</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1562,25 +1562,53 @@
         <f>(L14-L16)/2</f>
         <v>-0.46441666666666848</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N12">
+        <f>SUMPRODUCT(B12:B19,$E$12:$E$19)/4</f>
+        <v>21.468916666666662</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:P12" si="3">SUMPRODUCT(C12:C19,$E$12:$E$19)/4</f>
+        <v>1.1039166666666667</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>-8.0727499999999992</v>
+      </c>
+      <c r="Q12">
+        <f>SUMPRODUCT(B12:B19,C12:C19,$E$12:$E$19)/4</f>
+        <v>2.1627499999999991</v>
+      </c>
+      <c r="R12">
+        <f>SUMPRODUCT(C12:C19,D12:D19,$E$12:$E$19)/4</f>
+        <v>28.63441666666667</v>
+      </c>
+      <c r="S12">
+        <f>SUMPRODUCT(B12:B19,D12:D19,$E$12:$E$19)/4</f>
+        <v>1.5560833333333335</v>
+      </c>
+      <c r="T12">
+        <f>SUMPRODUCT(B12:B19,C12:C19,D12:D19,E12:E19)/4</f>
+        <v>-0.46441666666666492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B19" si="3">IF(B3=80,-1,1)</f>
+        <f t="shared" ref="B13:B19" si="4">IF(B3=80,-1,1)</f>
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="4">IF(C3=50,-1,1)</f>
+        <f t="shared" ref="C13:C19" si="5">IF(C3=50,-1,1)</f>
         <v>-1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D19" si="5">IF(D3=5,-1,1)</f>
+        <f t="shared" ref="D13:D19" si="6">IF(D3=5,-1,1)</f>
         <v>-1</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E19" si="6">H3</f>
+        <f t="shared" ref="E13:E19" si="7">H3</f>
         <v>76.313333333333333</v>
       </c>
       <c r="F13">
@@ -1605,24 +1633,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.870000000000005</v>
       </c>
       <c r="F14" t="s">
@@ -1651,24 +1679,24 @@
         <v>1.6983333333333306</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.41</v>
       </c>
       <c r="F15">
@@ -1696,24 +1724,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.3</v>
       </c>
       <c r="F16" t="s">
@@ -1742,24 +1770,24 @@
         <v>2.6271666666666675</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41.626666666666665</v>
       </c>
       <c r="F17">
@@ -1784,24 +1812,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.34</v>
       </c>
       <c r="F18" t="s">
@@ -1826,24 +1854,24 @@
         <v>-6.5166666666666657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>73.063333333333333</v>
       </c>
       <c r="F19">
@@ -1868,7 +1896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>46</v>
       </c>
@@ -1891,7 +1919,7 @@
         <v>-9.6288333333333398</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>(SUMIFS(E12:E19,B12:B19,"=1",C12:C19,"=-1",D12:D19,"=-1")+SUMIFS(E12:E19,B12:B19,"=-1",C12:C19,"=-1",D12:D19,"=-1"))/2</f>
         <v>67.670500000000004</v>
@@ -1914,7 +1942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I22">
         <f>(I18-I20)/2</f>
         <v>2.1627499999999991</v>
@@ -1928,7 +1956,7 @@
         <v>1.556083333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>92</v>
       </c>
@@ -1954,7 +1982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24">
         <f>SUM(E12:E19)/8</f>
         <v>49.86887500000001</v>
@@ -1964,31 +1992,31 @@
         <v>10.734458333333333</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:L24" si="7">G12/2</f>
+        <f t="shared" ref="G24:L24" si="8">G12/2</f>
         <v>0.55195833333333155</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.0363750000000032</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0813749999999995</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.317208333333335</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.77804166666666852</v>
       </c>
       <c r="L24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.23220833333333424</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2051,7 +2079,7 @@
         <v>59.027666666666669</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2065,27 +2093,27 @@
         <v>-1</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E33" si="8">B27*C27</f>
+        <f t="shared" ref="E27:E33" si="9">B27*C27</f>
         <v>-1</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F33" si="9">C27*D27</f>
+        <f t="shared" ref="F27:F33" si="10">C27*D27</f>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G33" si="10">B27*D27</f>
+        <f t="shared" ref="G27:G33" si="11">B27*D27</f>
         <v>-1</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H33" si="11">B27*C27*D27</f>
+        <f t="shared" ref="H27:H33" si="12">B27*C27*D27</f>
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I33" si="12">H3</f>
+        <f t="shared" ref="I27:I33" si="13">H3</f>
         <v>76.313333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2099,27 +2127,27 @@
         <v>-1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28.870000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2133,27 +2161,27 @@
         <v>-1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.41</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2167,27 +2195,27 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2201,27 +2229,27 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="I31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.626666666666665</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2235,27 +2263,27 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48.34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2269,23 +2297,23 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>73.063333333333333</v>
       </c>
     </row>
@@ -2303,9 +2331,9 @@
       <selection activeCell="J1" sqref="J1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2322,7 +2350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2">
         <f>B17+B18*K2+B19*L2+B20*M2+B21*K2*L2+B22*L2*M2+B23*K2*M2+B24*K2*L2*M2</f>
         <v>76.313333333333347</v>
@@ -2337,13 +2365,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -2351,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -2367,7 +2395,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -2375,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -2383,12 +2411,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>68</v>
@@ -2406,7 +2434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -2426,7 +2454,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2442,7 +2470,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2456,8 +2484,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>73</v>
@@ -2484,7 +2512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -2513,7 +2541,7 @@
         <v>49.86887500000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2542,7 +2570,7 @@
         <v>10.734458333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2599,7 @@
         <v>0.55195833333333399</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2600,7 +2628,7 @@
         <v>-4.0363750000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2629,7 +2657,7 @@
         <v>1.0813749999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -2658,7 +2686,7 @@
         <v>14.317208333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2687,7 +2715,7 @@
         <v>0.77804166666666941</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -2726,18 +2754,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B5B52F-AFDE-4D9E-9EB7-9D2917F65C70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2781,7 +2809,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2816,11 +2844,11 @@
         <v>1842.9848999999999</v>
       </c>
       <c r="K2">
-        <f>AVERAGE(E2:I2)</f>
+        <f t="shared" ref="K2:K9" si="0">AVERAGE(E2:I2)</f>
         <v>676.02257780000014</v>
       </c>
       <c r="L2">
-        <f>_xlfn.VAR.S(E2:I2)</f>
+        <f t="shared" ref="L2:L9" si="1">_xlfn.VAR.S(E2:I2)</f>
         <v>720292.12638008187</v>
       </c>
       <c r="M2">
@@ -2832,7 +2860,7 @@
         <v>-32.258272643060629</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2849,41 +2877,41 @@
         <v>75.62</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">(100-E3)^2</f>
+        <f t="shared" ref="F3:F9" si="2">(100-E3)^2</f>
         <v>594.3843999999998</v>
       </c>
       <c r="G3">
         <v>77.569999999999993</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="1">(100-G3)^2</f>
+        <f t="shared" ref="H3:H9" si="3">(100-G3)^2</f>
         <v>503.10490000000033</v>
       </c>
       <c r="I3">
         <v>75.75</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="2">(100-I3)^2</f>
+        <f t="shared" ref="J3:J9" si="4">(100-I3)^2</f>
         <v>588.0625</v>
       </c>
       <c r="K3">
-        <f>AVERAGE(E3:I3)</f>
+        <f t="shared" si="0"/>
         <v>265.28586000000001</v>
       </c>
       <c r="L3">
-        <f>_xlfn.VAR.S(E3:I3)</f>
+        <f t="shared" si="1"/>
         <v>67999.49239691798</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M9" si="3">L3^0.5</f>
+        <f t="shared" ref="M3:M9" si="5">L3^0.5</f>
         <v>260.76712292180923</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N9" si="4">-10*LOG10(1/3*SUM(F3,H3,J3))</f>
+        <f t="shared" ref="N3:N9" si="6">-10*LOG10(1/3*SUM(F3,H3,J3))</f>
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2900,41 +2928,41 @@
         <v>27.51</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5254.8000999999995</v>
       </c>
       <c r="G4">
         <v>34.03</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4352.0409</v>
       </c>
       <c r="I4">
         <v>25.07</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5614.5049000000008</v>
       </c>
       <c r="K4">
-        <f>AVERAGE(E4:I4)</f>
+        <f t="shared" si="0"/>
         <v>1938.6901999999998</v>
       </c>
       <c r="L4">
-        <f>_xlfn.VAR.S(E4:I4)</f>
+        <f t="shared" si="1"/>
         <v>6940782.2435631556</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2634.5364380784631</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2951,41 +2979,41 @@
         <v>51.37</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2364.8769000000002</v>
       </c>
       <c r="G5">
         <v>48.49</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2653.2800999999999</v>
       </c>
       <c r="I5">
         <v>54.37</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2082.0969000000005</v>
       </c>
       <c r="K5">
-        <f>AVERAGE(E5:I5)</f>
+        <f t="shared" si="0"/>
         <v>1034.4774</v>
       </c>
       <c r="L5">
-        <f>_xlfn.VAR.S(E5:I5)</f>
+        <f t="shared" si="1"/>
         <v>1822441.7098889553</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1349.9784108973577</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3002,41 +3030,41 @@
         <v>24.8</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5655.0400000000009</v>
       </c>
       <c r="G6">
         <v>20.69</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6290.0761000000002</v>
       </c>
       <c r="I6">
         <v>15.41</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7155.468100000001</v>
       </c>
       <c r="K6">
-        <f>AVERAGE(E6:I6)</f>
+        <f t="shared" si="0"/>
         <v>2401.2032200000003</v>
       </c>
       <c r="L6">
-        <f>_xlfn.VAR.S(E6:I6)</f>
+        <f t="shared" si="1"/>
         <v>10679232.702724842</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3267.9095309884028</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3053,41 +3081,41 @@
         <v>43.58</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3183.2164000000002</v>
       </c>
       <c r="G7">
         <v>44.31</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3101.3761</v>
       </c>
       <c r="I7">
         <v>36.99</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3970.2601</v>
       </c>
       <c r="K7">
-        <f>AVERAGE(E7:I7)</f>
+        <f t="shared" si="0"/>
         <v>1281.8944999999999</v>
       </c>
       <c r="L7">
-        <f>_xlfn.VAR.S(E7:I7)</f>
+        <f t="shared" si="1"/>
         <v>2885090.9174572304</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1698.5555385259647</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3104,41 +3132,41 @@
         <v>45.2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3003.0399999999995</v>
       </c>
       <c r="G8">
         <v>49.53</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2547.2208999999998</v>
       </c>
       <c r="I8">
         <v>50.29</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2471.0841</v>
       </c>
       <c r="K8">
-        <f>AVERAGE(E8:I8)</f>
+        <f t="shared" si="0"/>
         <v>1139.0561799999998</v>
       </c>
       <c r="L8">
-        <f>_xlfn.VAR.S(E8:I8)</f>
+        <f t="shared" si="1"/>
         <v>2256590.9985039616</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1502.1953929179658</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3155,41 +3183,41 @@
         <v>70.510000000000005</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>869.66009999999972</v>
       </c>
       <c r="G9">
         <v>74</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>676</v>
       </c>
       <c r="I9">
         <v>74.680000000000007</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>641.10239999999965</v>
       </c>
       <c r="K9">
-        <f>AVERAGE(E9:I9)</f>
+        <f t="shared" si="0"/>
         <v>352.97001999999998</v>
       </c>
       <c r="L9">
-        <f>_xlfn.VAR.S(E9:I9)</f>
+        <f t="shared" si="1"/>
         <v>151592.56923450186</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>389.34890424207163</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3227,7 +3255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3276,24 +3304,24 @@
         <v>1.0983889725910938</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B19" si="5">IF(B3=80,-1,1)</f>
+        <f t="shared" ref="B13:B19" si="7">IF(B3=80,-1,1)</f>
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="6">IF(C3=50,-1,1)</f>
+        <f t="shared" ref="C13:C19" si="8">IF(C3=50,-1,1)</f>
         <v>-1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D19" si="7">IF(D3=5,-1,1)</f>
+        <f t="shared" ref="D13:D19" si="9">IF(D3=5,-1,1)</f>
         <v>-1</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E19" si="8">N3</f>
+        <f t="shared" ref="E13:E19" si="10">N3</f>
         <v>-27.4962084898306</v>
       </c>
       <c r="F13">
@@ -3318,24 +3346,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-37.053318005467176</v>
       </c>
       <c r="F14" t="s">
@@ -3364,24 +3392,24 @@
         <v>1.4716417496153937</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-33.741526243370735</v>
       </c>
       <c r="F15">
@@ -3409,24 +3437,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-38.039253958242064</v>
       </c>
       <c r="F16" t="s">
@@ -3455,24 +3483,24 @@
         <v>-0.72513619556679387</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-35.338081676183947</v>
       </c>
       <c r="F17">
@@ -3497,24 +3525,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-34.271259411334526</v>
       </c>
       <c r="F18" t="s">
@@ -3539,24 +3567,24 @@
         <v>-1.3635752865141129</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-28.626803630045615</v>
       </c>
       <c r="F19">
@@ -3581,7 +3609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>46</v>
       </c>
@@ -3604,7 +3632,7 @@
         <v>-1.4994613605243927</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>(SUMIFS(E12:E19,B12:B19,"=1",C12:C19,"=-1",D12:D19,"=-1")+SUMIFS(E12:E19,B12:B19,"=-1",C12:C19,"=-1",D12:D19,"=-1"))/2</f>
         <v>-29.877240566445614</v>
@@ -3627,7 +3655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I22">
         <f>(I18-I20)/2</f>
         <v>0.37325277702430171</v>
@@ -3641,7 +3669,7 @@
         <v>6.7943037005139928E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>92</v>
       </c>
@@ -3667,7 +3695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24">
         <f>SUM(E12:E19)/8</f>
         <v>-33.353090507191915</v>
@@ -3677,31 +3705,31 @@
         <v>2.0524354973341854</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:L24" si="9">G12/2</f>
+        <f t="shared" ref="G24:L24" si="11">G12/2</f>
         <v>-7.0136315362599788E-2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.71575916175962462</v>
       </c>
       <c r="I24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.18662638851215085</v>
       </c>
       <c r="J24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.6899544636240673</v>
       </c>
       <c r="K24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.3971518502569964E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.5491944862955469</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3730,7 +3758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3764,7 +3792,7 @@
         <v>-32.258272643060629</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3778,27 +3806,27 @@
         <v>-1</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:F33" si="10">B27*C27</f>
+        <f t="shared" ref="E27:F33" si="12">B27*C27</f>
         <v>-1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G33" si="11">B27*D27</f>
+        <f t="shared" ref="G27:G33" si="13">B27*D27</f>
         <v>-1</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H33" si="12">B27*C27*D27</f>
+        <f t="shared" ref="H27:H33" si="14">B27*C27*D27</f>
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I33" si="13">N3</f>
+        <f t="shared" ref="I27:I33" si="15">N3</f>
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3812,27 +3840,27 @@
         <v>-1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3846,27 +3874,27 @@
         <v>-1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3880,27 +3908,27 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3914,27 +3942,27 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -3948,27 +3976,27 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3982,23 +4010,23 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-28.626803630045615</v>
       </c>
     </row>
@@ -4012,13 +4040,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C40C9-B3B5-4633-AE53-1F14717F6A87}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -4035,7 +4063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2">
         <f>B17+B18*K2+B19*L2+B20*M2+B21*K2*L2+B22*L2*M2+B23*K2*M2+B24*K2*L2*M2</f>
         <v>-27.4962084898306</v>
@@ -4050,13 +4078,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -4064,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -4072,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -4080,7 +4108,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -4088,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -4096,12 +4124,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>68</v>
@@ -4119,7 +4147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -4139,7 +4167,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -4155,7 +4183,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -4169,8 +4197,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>73</v>
@@ -4197,7 +4225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -4226,7 +4254,7 @@
         <v>-33.353090507191915</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4255,7 +4283,7 @@
         <v>2.0524354973341885</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -4284,7 +4312,7 @@
         <v>-7.0136315362602411E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -4313,7 +4341,7 @@
         <v>-0.71575916175962717</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -4342,7 +4370,7 @@
         <v>0.18662638851215071</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -4371,7 +4399,7 @@
         <v>2.68995446362407</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -4400,7 +4428,7 @@
         <v>3.3971518502570443E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW11/hw_11.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW11/hw_11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E575DFB-27E2-4CC1-BF0C-0E3C9D5CB967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93866D5A-950E-4B4E-85C0-B20240DDFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{259EBF96-642D-468E-9293-367CF614B782}"/>
+    <workbookView xWindow="5200" yWindow="2700" windowWidth="19200" windowHeight="11460" activeTab="3" xr2:uid="{259EBF96-642D-468E-9293-367CF614B782}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -936,12 +936,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -986,7 +986,7 @@
         <v>21.602468994692867</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -999,7 +999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1124,12 +1124,12 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>-35.425189811041925</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>-37.652599370610716</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>-29.282841743689655</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>-34.230411828694642</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>-26.30286884424628</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>-32.414512275122156</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>-33.695464016748559</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>-37.276703469218134</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>-0.46441666666666492</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1.6983333333333306</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>2.6271666666666675</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>-6.5166666666666657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
         <v>46</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>-9.6288333333333398</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F21">
         <f>(SUMIFS(E12:E19,B12:B19,"=1",C12:C19,"=-1",D12:D19,"=-1")+SUMIFS(E12:E19,B12:B19,"=-1",C12:C19,"=-1",D12:D19,"=-1"))/2</f>
         <v>67.670500000000004</v>
@@ -1942,7 +1942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I22">
         <f>(I18-I20)/2</f>
         <v>2.1627499999999991</v>
@@ -1956,7 +1956,7 @@
         <v>1.556083333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>92</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E24">
         <f>SUM(E12:E19)/8</f>
         <v>49.86887500000001</v>
@@ -2016,7 +2016,7 @@
         <v>-0.23220833333333424</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>59.027666666666669</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>76.313333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>28.870000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>51.41</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>41.626666666666665</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>48.34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2327,13 +2327,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C48544-B18C-4326-AD49-F38940F4BC7D}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J2">
         <f>B17+B18*K2+B19*L2+B20*M2+B21*K2*L2+B22*L2*M2+B23*K2*M2+B24*K2*L2*M2</f>
         <v>76.313333333333347</v>
@@ -2365,13 +2365,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -2411,12 +2411,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>68</v>
@@ -2434,7 +2434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2484,8 +2484,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>73</v>
@@ -2512,7 +2512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>49.86887500000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>10.734458333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0.55195833333333399</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>-4.0363750000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>1.0813749999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>14.317208333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>0.77804166666666941</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -2755,17 +2755,17 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2823,11 +2823,11 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>61.433</v>
+        <v>61.43</v>
       </c>
       <c r="F2">
         <f>(100-E2)^2</f>
-        <v>1487.413489</v>
+        <v>1487.6449</v>
       </c>
       <c r="G2">
         <v>58.58</v>
@@ -2845,22 +2845,22 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K9" si="0">AVERAGE(E2:I2)</f>
-        <v>676.02257780000014</v>
+        <v>676.06826000000012</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L9" si="1">_xlfn.VAR.S(E2:I2)</f>
-        <v>720292.12638008187</v>
+        <v>720386.94143695792</v>
       </c>
       <c r="M2">
         <f>L2^0.5</f>
-        <v>848.7002570873193</v>
+        <v>848.75611422655322</v>
       </c>
       <c r="N2">
         <f>-10*LOG10(1/3*SUM(F2,H2,J2))</f>
-        <v>-32.258272643060629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-32.25847180659887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3273,38 +3273,38 @@
       </c>
       <c r="E12">
         <f>N2</f>
-        <v>-32.258272643060629</v>
+        <v>-32.25847180659887</v>
       </c>
       <c r="F12">
         <f>SUMIF(B12:B19,"=1",$E$12:$E$19)/4-SUMIF(B12:B19,"=-1",$E$12:$E$19)/4</f>
-        <v>4.1048709946683708</v>
+        <v>4.1049207855529311</v>
       </c>
       <c r="G12">
         <f>SUMIF(C12:C19,"=1",$E$12:$E$19)/4-SUMIF(C12:C19,"=-1",$E$12:$E$19)/4</f>
-        <v>-0.14027263072519958</v>
+        <v>-0.14022283984063932</v>
       </c>
       <c r="H12">
         <f>SUMIF(D12:D19,"=1",$E$12:$E$19)/4-SUMIF(D12:D19,"=-1",$E$12:$E$19)/4</f>
-        <v>-1.4315183235192492</v>
+        <v>-1.431468532634689</v>
       </c>
       <c r="I12">
         <f>(I14-I16)/2</f>
-        <v>0.37325277702430171</v>
+        <v>0.37320298613974145</v>
       </c>
       <c r="J12">
         <f>(J14-J16)/2</f>
-        <v>5.3799089272481346</v>
+        <v>5.3798591363635744</v>
       </c>
       <c r="K12">
         <f>(K14-K16)/2</f>
-        <v>6.7943037005139928E-2</v>
+        <v>6.7893246120579676E-2</v>
       </c>
       <c r="L12">
         <f>(L14-L16)/2</f>
-        <v>1.0983889725910938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0984387634756541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1.4716417496153937</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3468,22 +3468,22 @@
       </c>
       <c r="I16">
         <f>H17-H21</f>
-        <v>3.7316182176440726</v>
+        <v>3.7317177994131931</v>
       </c>
       <c r="J16">
         <f>F17-F21</f>
-        <v>-5.5201815579733378</v>
+        <v>-5.5200819762042173</v>
       </c>
       <c r="K16">
         <f>G17-G21</f>
-        <v>4.036927957663238</v>
+        <v>4.0370275394323585</v>
       </c>
       <c r="L16">
         <f>(E15+E12-E13-E14)/2</f>
-        <v>-0.72513619556679387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.72523577733591438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>-1.3635752865141129</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
         <v>46</v>
       </c>
@@ -3621,29 +3621,29 @@
       </c>
       <c r="I20">
         <f>H19-H21</f>
-        <v>-0.51352540774950484</v>
+        <v>-0.51342582598038433</v>
       </c>
       <c r="J20">
         <f>F19-F21</f>
-        <v>-6.8114272507673874</v>
+        <v>-6.8113276689982669</v>
       </c>
       <c r="K20">
         <f>G19-G21</f>
-        <v>-1.4994613605243927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-1.4993617787552722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F21">
         <f>(SUMIFS(E12:E19,B12:B19,"=1",C12:C19,"=-1",D12:D19,"=-1")+SUMIFS(E12:E19,B12:B19,"=-1",C12:C19,"=-1",D12:D19,"=-1"))/2</f>
-        <v>-29.877240566445614</v>
+        <v>-29.877340148214735</v>
       </c>
       <c r="G21">
         <f>(SUMIFS(E12:E19,C12:C19,"=1",B12:B19,"=-1",D12:D19,"=-1")+SUMIFS(E12:E19,C12:C19,"=-1",B12:B19,"=-1",D12:D19,"=-1"))/2</f>
-        <v>-34.655795324263906</v>
+        <v>-34.655894906033026</v>
       </c>
       <c r="H21">
         <f>(SUMIFS(E12:E19,D12:D19,"=1",B12:B19,"=-1",C12:C19,"=-1")+SUMIFS(E12:E19,D12:D19,"=-1",B12:B19,"=-1",C12:C19,"=-1"))/2</f>
-        <v>-35.148763300651346</v>
+        <v>-35.148862882420467</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
@@ -3655,21 +3655,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I22">
         <f>(I18-I20)/2</f>
-        <v>0.37325277702430171</v>
+        <v>0.37320298613974145</v>
       </c>
       <c r="J22">
         <f>(J18-J20)/2</f>
-        <v>5.3799089272481346</v>
+        <v>5.3798591363635744</v>
       </c>
       <c r="K22">
         <f>(K18-K20)/2</f>
-        <v>6.7943037005139928E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.7893246120579676E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>92</v>
       </c>
@@ -3695,41 +3695,41 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E24">
         <f>SUM(E12:E19)/8</f>
-        <v>-33.353090507191915</v>
+        <v>-33.353115402634195</v>
       </c>
       <c r="F24">
         <f>F12/2</f>
-        <v>2.0524354973341854</v>
+        <v>2.0524603927764655</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24:L24" si="11">G12/2</f>
-        <v>-7.0136315362599788E-2</v>
+        <v>-7.0111419920319662E-2</v>
       </c>
       <c r="H24">
         <f t="shared" si="11"/>
-        <v>-0.71575916175962462</v>
+        <v>-0.71573426631734449</v>
       </c>
       <c r="I24">
         <f t="shared" si="11"/>
-        <v>0.18662638851215085</v>
+        <v>0.18660149306987073</v>
       </c>
       <c r="J24">
         <f t="shared" si="11"/>
-        <v>2.6899544636240673</v>
+        <v>2.6899295681817872</v>
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
-        <v>3.3971518502569964E-2</v>
+        <v>3.3946623060289838E-2</v>
       </c>
       <c r="L24">
         <f t="shared" si="11"/>
-        <v>0.5491944862955469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.54921938173782703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3789,10 +3789,10 @@
       </c>
       <c r="I26">
         <f>N2</f>
-        <v>-32.258272643060629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-32.25847180659887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>7</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>8</v>
       </c>
@@ -4044,9 +4044,9 @@
       <selection activeCell="J1" sqref="J1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J2">
         <f>B17+B18*K2+B19*L2+B20*M2+B21*K2*L2+B22*L2*M2+B23*K2*M2+B24*K2*L2*M2</f>
         <v>-27.4962084898306</v>
@@ -4078,13 +4078,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -4124,12 +4124,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>68</v>
@@ -4147,7 +4147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -4197,8 +4197,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>73</v>
@@ -4225,7 +4225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>-33.353090507191915</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>2.0524354973341885</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>-7.0136315362602411E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>-0.71575916175962717</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0.18662638851215071</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>2.68995446362407</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>3.3971518502570443E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
